--- a/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
+++ b/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canbe\OneDrive\Masaüstü\RentFly_test\Proje Ek Dokümanları-Demo,Test Case Dokümanı vs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A79349-F843-4796-B996-5CBC4A34EF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49A082-17A2-4152-B484-66B0275CD326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="182">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -653,9 +653,6 @@
     <t>Telefon sütunu benzersiz kısıtlama içermeli</t>
   </si>
   <si>
-    <t>Database Test Scenaryoları Sonuçları</t>
-  </si>
-  <si>
     <t>Scenario Types</t>
   </si>
   <si>
@@ -810,7 +807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +862,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1174,12 +1183,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1283,8 +1329,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,6 +1452,32 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1432,7 +1502,6 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -1456,27 +1525,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>255490</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>426027</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>92991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Resim 2">
+        <xdr:cNvPr id="17" name="Resim 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745FED53-458B-4435-7E85-34443491CED2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC98B73-F226-D7F0-828F-8D30DBBE7C26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1487,46 +1556,57 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="76200" y="554182"/>
-          <a:ext cx="7494490" cy="10512136"/>
+          <a:off x="285750" y="0"/>
+          <a:ext cx="9220200" cy="15504441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>170707</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>321128</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>290944</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>418990</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>234478</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Resim 4">
+        <xdr:cNvPr id="18" name="Resim 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30AD750-405E-B271-58FA-212675B6FBD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E82991A-0BDE-A598-752E-0391A1C817E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1537,122 +1617,223 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10398578" y="993321"/>
+          <a:ext cx="9476450" cy="13694229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>117020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10741479" cy="11489872"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="image68.png" title="Resim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22DE6B0-E3AE-4415-B9B5-83029256C463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14801107" y="346363"/>
-          <a:ext cx="7435437" cy="10712918"/>
+          <a:off x="22062620" y="2816678"/>
+          <a:ext cx="10741479" cy="11489872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>193048</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>188244</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>1732</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="11468100" cy="11639550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Resim 6">
+        <xdr:cNvPr id="20" name="image72.png" title="Resim">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCF2A1B-39DA-B15C-7205-117C342EF400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF8D006-FFD4-4C9B-8141-3809EF2B07C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7508248" y="554182"/>
-          <a:ext cx="7310396" cy="10531186"/>
+          <a:off x="2838450" y="16478250"/>
+          <a:ext cx="11468100" cy="11639550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>27708</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>329141</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="10458450" cy="4019550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Resim 3">
+        <xdr:cNvPr id="21" name="image66.png" title="Resim">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF9B990-E917-32A0-2E44-2069450B3821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D3BD24-7B06-47A8-AF90-DBE583EA3B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="637308" y="11651672"/>
-          <a:ext cx="16151033" cy="4488873"/>
+          <a:off x="3200400" y="28289250"/>
+          <a:ext cx="10458450" cy="4019550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11677650" cy="9277350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image73.png" title="Resim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3382E09-CF12-4680-B745-E16DB8E98AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19259550" y="16649700"/>
+          <a:ext cx="11677650" cy="9277350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10477500" cy="3905250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image54.png" title="Resim">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE21D201-45E5-4A58-883C-7B65887EC668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373850" y="26308050"/>
+          <a:ext cx="10477500" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1914,8 +2095,8 @@
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1924,7 +2105,7 @@
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="3" max="3" width="74.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="39.21875" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="29.21875" customWidth="1"/>
@@ -2020,7 +2201,7 @@
         <v>110</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="81" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="30" t="s">
@@ -2053,11 +2234,11 @@
       <c r="C5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="5"/>
@@ -2086,7 +2267,7 @@
         <v>112</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="30" t="s">
@@ -2221,10 +2402,10 @@
         <v>35</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -2241,32 +2422,32 @@
     </row>
     <row r="11" spans="1:24" ht="60">
       <c r="A11" s="6"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="85"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2282,7 +2463,7 @@
     </row>
     <row r="12" spans="1:24" ht="45">
       <c r="A12" s="6"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -2300,10 +2481,10 @@
       <c r="G12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="15"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2321,7 +2502,7 @@
     </row>
     <row r="13" spans="1:24" ht="45">
       <c r="A13" s="6"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="22" t="s">
@@ -2339,10 +2520,10 @@
       <c r="G13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="15"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2361,7 +2542,7 @@
     </row>
     <row r="14" spans="1:24" ht="45">
       <c r="A14" s="6"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="22" t="s">
@@ -2379,10 +2560,10 @@
       <c r="G14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="15"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -2401,7 +2582,7 @@
     </row>
     <row r="15" spans="1:24" ht="60">
       <c r="A15" s="6"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -2419,10 +2600,10 @@
       <c r="G15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="79"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="15"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2441,7 +2622,7 @@
     </row>
     <row r="16" spans="1:24" ht="60">
       <c r="A16" s="6"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -2459,10 +2640,10 @@
       <c r="G16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="79"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="16"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -2481,7 +2662,7 @@
     </row>
     <row r="17" spans="1:24" ht="60">
       <c r="A17" s="6"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="22" t="s">
@@ -2499,10 +2680,10 @@
       <c r="G17" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="79"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="15"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -2521,7 +2702,7 @@
     </row>
     <row r="18" spans="1:24" ht="60">
       <c r="A18" s="6"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -2539,10 +2720,10 @@
       <c r="G18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="79"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="15"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -2561,7 +2742,7 @@
     </row>
     <row r="19" spans="1:24" ht="60">
       <c r="A19" s="6"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2579,10 +2760,10 @@
       <c r="G19" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="79"/>
+      <c r="I19" s="89"/>
       <c r="J19" s="15"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -2601,7 +2782,7 @@
     </row>
     <row r="20" spans="1:24" ht="90">
       <c r="A20" s="6"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="22" t="s">
@@ -2619,10 +2800,10 @@
       <c r="G20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="79"/>
+      <c r="I20" s="89"/>
       <c r="J20" s="15"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -2641,28 +2822,28 @@
     </row>
     <row r="21" spans="1:24" ht="90.6" thickBot="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="79"/>
+      <c r="I21" s="89"/>
       <c r="J21" s="15"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -2681,28 +2862,28 @@
     </row>
     <row r="22" spans="1:24" ht="75">
       <c r="A22" s="6"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="90" t="s">
         <v>130</v>
       </c>
       <c r="J22" s="15"/>
@@ -2723,28 +2904,28 @@
     </row>
     <row r="23" spans="1:24" ht="75.599999999999994" thickBot="1">
       <c r="A23" s="6"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="81"/>
+      <c r="I23" s="91"/>
       <c r="J23" s="15"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -2763,28 +2944,28 @@
     </row>
     <row r="24" spans="1:24" ht="60">
       <c r="A24" s="6"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="I24" s="80" t="s">
+      <c r="I24" s="90" t="s">
         <v>131</v>
       </c>
       <c r="J24" s="15"/>
@@ -2805,7 +2986,7 @@
     </row>
     <row r="25" spans="1:24" ht="120">
       <c r="A25" s="6"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -2823,10 +3004,10 @@
       <c r="G25" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="82"/>
+      <c r="I25" s="92"/>
       <c r="J25" s="15"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -2845,7 +3026,7 @@
     </row>
     <row r="26" spans="1:24" ht="75">
       <c r="A26" s="6"/>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2863,10 +3044,10 @@
       <c r="G26" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="82"/>
+      <c r="I26" s="92"/>
       <c r="J26" s="15"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -2885,7 +3066,7 @@
     </row>
     <row r="27" spans="1:24" ht="120">
       <c r="A27" s="6"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="28" t="s">
@@ -2903,10 +3084,10 @@
       <c r="G27" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="82"/>
+      <c r="I27" s="92"/>
       <c r="J27" s="15"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -2925,7 +3106,7 @@
     </row>
     <row r="28" spans="1:24" ht="135">
       <c r="A28" s="6"/>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="56" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -2943,10 +3124,10 @@
       <c r="G28" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="82"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="15"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -2965,7 +3146,7 @@
     </row>
     <row r="29" spans="1:24" ht="120">
       <c r="A29" s="6"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="28" t="s">
@@ -2983,10 +3164,10 @@
       <c r="G29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="82"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="15"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -3005,28 +3186,28 @@
     </row>
     <row r="30" spans="1:24" ht="105.6" thickBot="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="81"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="15"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -3043,30 +3224,30 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24" ht="30">
+    <row r="31" spans="1:24" ht="45">
       <c r="A31" s="6"/>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="83" t="s">
+      <c r="I31" s="93" t="s">
         <v>169</v>
       </c>
       <c r="J31" s="16"/>
@@ -3087,7 +3268,7 @@
     </row>
     <row r="32" spans="1:24" ht="30">
       <c r="A32" s="6"/>
-      <c r="B32" s="68" t="s">
+      <c r="B32" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C32" s="32" t="s">
@@ -3105,10 +3286,10 @@
       <c r="G32" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="84"/>
+      <c r="I32" s="94"/>
       <c r="J32" s="16"/>
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
@@ -3127,7 +3308,7 @@
     </row>
     <row r="33" spans="1:24" ht="45">
       <c r="A33" s="6"/>
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="66" t="s">
         <v>136</v>
       </c>
       <c r="C33" s="32" t="s">
@@ -3145,10 +3326,10 @@
       <c r="G33" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="84"/>
+      <c r="I33" s="94"/>
       <c r="J33" s="16"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
@@ -3165,9 +3346,9 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
     </row>
-    <row r="34" spans="1:24" ht="30">
+    <row r="34" spans="1:24" ht="45">
       <c r="A34" s="6"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="66" t="s">
         <v>137</v>
       </c>
       <c r="C34" s="32" t="s">
@@ -3185,10 +3366,10 @@
       <c r="G34" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="84"/>
+      <c r="I34" s="94"/>
       <c r="J34" s="15"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -3207,7 +3388,7 @@
     </row>
     <row r="35" spans="1:24" ht="30">
       <c r="A35" s="6"/>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="66" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="32" t="s">
@@ -3225,10 +3406,10 @@
       <c r="G35" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="I35" s="84"/>
+      <c r="I35" s="94"/>
       <c r="J35" s="15"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -3245,9 +3426,9 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="1:24" ht="30">
+    <row r="36" spans="1:24" ht="45">
       <c r="A36" s="6"/>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="66" t="s">
         <v>139</v>
       </c>
       <c r="C36" s="32" t="s">
@@ -3265,10 +3446,10 @@
       <c r="G36" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="I36" s="84"/>
+      <c r="I36" s="94"/>
       <c r="J36" s="15"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3287,7 +3468,7 @@
     </row>
     <row r="37" spans="1:24" ht="30">
       <c r="A37" s="6"/>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="66" t="s">
         <v>140</v>
       </c>
       <c r="C37" s="32" t="s">
@@ -3305,10 +3486,10 @@
       <c r="G37" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="I37" s="84"/>
+      <c r="I37" s="94"/>
       <c r="J37" s="15"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -3327,7 +3508,7 @@
     </row>
     <row r="38" spans="1:24" ht="30">
       <c r="A38" s="6"/>
-      <c r="B38" s="68" t="s">
+      <c r="B38" s="66" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="32" t="s">
@@ -3345,10 +3526,10 @@
       <c r="G38" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="I38" s="84"/>
+      <c r="I38" s="94"/>
       <c r="J38" s="15"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -3367,28 +3548,28 @@
     </row>
     <row r="39" spans="1:24" ht="30.6" thickBot="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="I39" s="85"/>
+      <c r="I39" s="95"/>
       <c r="J39" s="15"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -3407,13 +3588,13 @@
     </row>
     <row r="40" spans="1:24" ht="17.399999999999999">
       <c r="A40" s="1"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="34"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -28516,21 +28697,1090 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A4679-2680-4090-899A-65CEEAAC679A}">
-  <dimension ref="B65:B66"/>
+  <dimension ref="A1:BE189"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD76" sqref="AD76"/>
+    <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BG47" sqref="BG47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="16" width="8.88671875" style="76"/>
+    <col min="17" max="17" width="4.6640625" style="76" customWidth="1"/>
+    <col min="18" max="27" width="8.88671875" style="76"/>
+    <col min="28" max="28" width="6.109375" style="76" customWidth="1"/>
+    <col min="29" max="34" width="8.88671875" style="76"/>
+    <col min="35" max="35" width="5.21875" style="76" customWidth="1"/>
+    <col min="36" max="56" width="8.88671875" style="76"/>
+    <col min="57" max="57" width="5.21875" style="76" customWidth="1"/>
+    <col min="58" max="16384" width="8.88671875" style="76"/>
+  </cols>
   <sheetData>
-    <row r="65" spans="2:2" ht="34.799999999999997">
-      <c r="B65" s="35"/>
-    </row>
-    <row r="66" spans="2:2" ht="44.4">
-      <c r="B66" s="36" t="s">
-        <v>180</v>
-      </c>
+    <row r="1" spans="17:57">
+      <c r="Q1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="BE1" s="84"/>
+    </row>
+    <row r="2" spans="17:57">
+      <c r="Q2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="BE2" s="84"/>
+    </row>
+    <row r="3" spans="17:57">
+      <c r="Q3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="BE3" s="84"/>
+    </row>
+    <row r="4" spans="17:57">
+      <c r="Q4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="BE4" s="84"/>
+    </row>
+    <row r="5" spans="17:57">
+      <c r="Q5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="BE5" s="84"/>
+    </row>
+    <row r="6" spans="17:57">
+      <c r="Q6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="BE6" s="84"/>
+    </row>
+    <row r="7" spans="17:57">
+      <c r="Q7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="BE7" s="84"/>
+    </row>
+    <row r="8" spans="17:57">
+      <c r="Q8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="BE8" s="84"/>
+    </row>
+    <row r="9" spans="17:57">
+      <c r="Q9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="BE9" s="84"/>
+    </row>
+    <row r="10" spans="17:57">
+      <c r="Q10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="BE10" s="84"/>
+    </row>
+    <row r="11" spans="17:57">
+      <c r="Q11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="BE11" s="84"/>
+    </row>
+    <row r="12" spans="17:57">
+      <c r="Q12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="BE12" s="84"/>
+    </row>
+    <row r="13" spans="17:57">
+      <c r="Q13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="BE13" s="84"/>
+    </row>
+    <row r="14" spans="17:57">
+      <c r="Q14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="BE14" s="84"/>
+    </row>
+    <row r="15" spans="17:57">
+      <c r="Q15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="BE15" s="84"/>
+    </row>
+    <row r="16" spans="17:57">
+      <c r="Q16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="BE16" s="84"/>
+    </row>
+    <row r="17" spans="17:57">
+      <c r="Q17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="BE17" s="84"/>
+    </row>
+    <row r="18" spans="17:57">
+      <c r="Q18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="BE18" s="84"/>
+    </row>
+    <row r="19" spans="17:57">
+      <c r="Q19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="BE19" s="84"/>
+    </row>
+    <row r="20" spans="17:57">
+      <c r="Q20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="BE20" s="84"/>
+    </row>
+    <row r="21" spans="17:57">
+      <c r="Q21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="BE21" s="84"/>
+    </row>
+    <row r="22" spans="17:57">
+      <c r="Q22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="BE22" s="84"/>
+    </row>
+    <row r="23" spans="17:57">
+      <c r="Q23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="BE23" s="84"/>
+    </row>
+    <row r="24" spans="17:57">
+      <c r="Q24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="BE24" s="84"/>
+    </row>
+    <row r="25" spans="17:57">
+      <c r="Q25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="BE25" s="84"/>
+    </row>
+    <row r="26" spans="17:57">
+      <c r="Q26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="BE26" s="84"/>
+    </row>
+    <row r="27" spans="17:57">
+      <c r="Q27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="BE27" s="84"/>
+    </row>
+    <row r="28" spans="17:57">
+      <c r="Q28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="BE28" s="84"/>
+    </row>
+    <row r="29" spans="17:57">
+      <c r="Q29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="BE29" s="84"/>
+    </row>
+    <row r="30" spans="17:57">
+      <c r="Q30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="BE30" s="84"/>
+    </row>
+    <row r="31" spans="17:57">
+      <c r="Q31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="BE31" s="84"/>
+    </row>
+    <row r="32" spans="17:57">
+      <c r="Q32" s="84"/>
+      <c r="AI32" s="84"/>
+      <c r="BE32" s="84"/>
+    </row>
+    <row r="33" spans="17:57">
+      <c r="Q33" s="84"/>
+      <c r="AI33" s="84"/>
+      <c r="BE33" s="84"/>
+    </row>
+    <row r="34" spans="17:57">
+      <c r="Q34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="BE34" s="84"/>
+    </row>
+    <row r="35" spans="17:57">
+      <c r="Q35" s="84"/>
+      <c r="AI35" s="84"/>
+      <c r="BE35" s="84"/>
+    </row>
+    <row r="36" spans="17:57">
+      <c r="Q36" s="84"/>
+      <c r="AI36" s="84"/>
+      <c r="BE36" s="84"/>
+    </row>
+    <row r="37" spans="17:57">
+      <c r="Q37" s="84"/>
+      <c r="AI37" s="84"/>
+      <c r="BE37" s="84"/>
+    </row>
+    <row r="38" spans="17:57">
+      <c r="Q38" s="84"/>
+      <c r="AI38" s="84"/>
+      <c r="BE38" s="84"/>
+    </row>
+    <row r="39" spans="17:57">
+      <c r="Q39" s="84"/>
+      <c r="AI39" s="84"/>
+      <c r="BE39" s="84"/>
+    </row>
+    <row r="40" spans="17:57">
+      <c r="Q40" s="84"/>
+      <c r="AI40" s="84"/>
+      <c r="BE40" s="84"/>
+    </row>
+    <row r="41" spans="17:57">
+      <c r="Q41" s="84"/>
+      <c r="AI41" s="84"/>
+      <c r="BE41" s="84"/>
+    </row>
+    <row r="42" spans="17:57">
+      <c r="Q42" s="84"/>
+      <c r="AI42" s="84"/>
+      <c r="BE42" s="84"/>
+    </row>
+    <row r="43" spans="17:57">
+      <c r="Q43" s="84"/>
+      <c r="AI43" s="84"/>
+      <c r="BE43" s="84"/>
+    </row>
+    <row r="44" spans="17:57">
+      <c r="Q44" s="84"/>
+      <c r="AI44" s="84"/>
+      <c r="BE44" s="84"/>
+    </row>
+    <row r="45" spans="17:57">
+      <c r="Q45" s="84"/>
+      <c r="AI45" s="84"/>
+      <c r="BE45" s="84"/>
+    </row>
+    <row r="46" spans="17:57">
+      <c r="Q46" s="84"/>
+      <c r="AI46" s="84"/>
+      <c r="BE46" s="84"/>
+    </row>
+    <row r="47" spans="17:57">
+      <c r="Q47" s="84"/>
+      <c r="AI47" s="84"/>
+      <c r="BE47" s="84"/>
+    </row>
+    <row r="48" spans="17:57">
+      <c r="Q48" s="84"/>
+      <c r="AI48" s="84"/>
+      <c r="BE48" s="84"/>
+    </row>
+    <row r="49" spans="17:57">
+      <c r="Q49" s="84"/>
+      <c r="AI49" s="84"/>
+      <c r="BE49" s="84"/>
+    </row>
+    <row r="50" spans="17:57">
+      <c r="Q50" s="84"/>
+      <c r="AI50" s="84"/>
+      <c r="BE50" s="84"/>
+    </row>
+    <row r="51" spans="17:57">
+      <c r="Q51" s="84"/>
+      <c r="AI51" s="84"/>
+      <c r="BE51" s="84"/>
+    </row>
+    <row r="52" spans="17:57">
+      <c r="Q52" s="84"/>
+      <c r="AI52" s="84"/>
+      <c r="BE52" s="84"/>
+    </row>
+    <row r="53" spans="17:57">
+      <c r="Q53" s="84"/>
+      <c r="AI53" s="84"/>
+      <c r="BE53" s="84"/>
+    </row>
+    <row r="54" spans="17:57">
+      <c r="Q54" s="84"/>
+      <c r="AI54" s="84"/>
+      <c r="BE54" s="84"/>
+    </row>
+    <row r="55" spans="17:57">
+      <c r="Q55" s="84"/>
+      <c r="AI55" s="84"/>
+      <c r="BE55" s="84"/>
+    </row>
+    <row r="56" spans="17:57">
+      <c r="Q56" s="84"/>
+      <c r="AI56" s="84"/>
+      <c r="BE56" s="84"/>
+    </row>
+    <row r="57" spans="17:57">
+      <c r="Q57" s="84"/>
+      <c r="AI57" s="84"/>
+      <c r="BE57" s="84"/>
+    </row>
+    <row r="58" spans="17:57">
+      <c r="Q58" s="84"/>
+      <c r="AI58" s="84"/>
+      <c r="BE58" s="84"/>
+    </row>
+    <row r="59" spans="17:57">
+      <c r="Q59" s="84"/>
+      <c r="AI59" s="84"/>
+      <c r="BE59" s="84"/>
+    </row>
+    <row r="60" spans="17:57">
+      <c r="Q60" s="84"/>
+      <c r="AI60" s="84"/>
+      <c r="BE60" s="84"/>
+    </row>
+    <row r="61" spans="17:57">
+      <c r="Q61" s="84"/>
+      <c r="AI61" s="84"/>
+      <c r="BE61" s="84"/>
+    </row>
+    <row r="62" spans="17:57">
+      <c r="Q62" s="84"/>
+      <c r="AI62" s="84"/>
+      <c r="BE62" s="84"/>
+    </row>
+    <row r="63" spans="17:57">
+      <c r="Q63" s="84"/>
+      <c r="AI63" s="84"/>
+      <c r="BE63" s="84"/>
+    </row>
+    <row r="64" spans="17:57">
+      <c r="Q64" s="84"/>
+      <c r="AI64" s="84"/>
+      <c r="BE64" s="84"/>
+    </row>
+    <row r="65" spans="2:57" ht="34.799999999999997">
+      <c r="B65" s="77"/>
+      <c r="Q65" s="84"/>
+      <c r="AI65" s="84"/>
+      <c r="BE65" s="84"/>
+    </row>
+    <row r="66" spans="2:57" ht="44.4">
+      <c r="B66" s="78"/>
+      <c r="Q66" s="84"/>
+      <c r="AI66" s="84"/>
+      <c r="BE66" s="84"/>
+    </row>
+    <row r="67" spans="2:57">
+      <c r="Q67" s="84"/>
+      <c r="AI67" s="84"/>
+      <c r="BE67" s="84"/>
+    </row>
+    <row r="68" spans="2:57">
+      <c r="Q68" s="84"/>
+      <c r="AI68" s="84"/>
+      <c r="BE68" s="84"/>
+    </row>
+    <row r="69" spans="2:57">
+      <c r="Q69" s="84"/>
+      <c r="AI69" s="84"/>
+      <c r="BE69" s="84"/>
+    </row>
+    <row r="70" spans="2:57">
+      <c r="Q70" s="84"/>
+      <c r="AI70" s="84"/>
+      <c r="BE70" s="84"/>
+    </row>
+    <row r="71" spans="2:57">
+      <c r="Q71" s="84"/>
+      <c r="AI71" s="84"/>
+      <c r="BE71" s="84"/>
+    </row>
+    <row r="72" spans="2:57">
+      <c r="Q72" s="84"/>
+      <c r="AI72" s="84"/>
+      <c r="BE72" s="84"/>
+    </row>
+    <row r="73" spans="2:57">
+      <c r="Q73" s="84"/>
+      <c r="AI73" s="84"/>
+      <c r="BE73" s="84"/>
+    </row>
+    <row r="74" spans="2:57">
+      <c r="Q74" s="84"/>
+      <c r="AI74" s="84"/>
+      <c r="BE74" s="84"/>
+    </row>
+    <row r="75" spans="2:57">
+      <c r="Q75" s="84"/>
+      <c r="AI75" s="84"/>
+      <c r="BE75" s="84"/>
+    </row>
+    <row r="76" spans="2:57">
+      <c r="Q76" s="84"/>
+      <c r="AI76" s="84"/>
+      <c r="BE76" s="84"/>
+    </row>
+    <row r="77" spans="2:57">
+      <c r="Q77" s="84"/>
+      <c r="AI77" s="84"/>
+      <c r="BE77" s="84"/>
+    </row>
+    <row r="78" spans="2:57">
+      <c r="Q78" s="84"/>
+      <c r="AI78" s="84"/>
+      <c r="BE78" s="84"/>
+    </row>
+    <row r="79" spans="2:57">
+      <c r="Q79" s="84"/>
+      <c r="AI79" s="84"/>
+      <c r="BE79" s="84"/>
+    </row>
+    <row r="80" spans="2:57">
+      <c r="Q80" s="84"/>
+      <c r="AI80" s="84"/>
+      <c r="BE80" s="84"/>
+    </row>
+    <row r="81" spans="1:57">
+      <c r="Q81" s="84"/>
+      <c r="AI81" s="84"/>
+      <c r="BE81" s="84"/>
+    </row>
+    <row r="82" spans="1:57">
+      <c r="Q82" s="84"/>
+      <c r="AI82" s="84"/>
+      <c r="BE82" s="84"/>
+    </row>
+    <row r="83" spans="1:57">
+      <c r="Q83" s="84"/>
+      <c r="AI83" s="84"/>
+      <c r="BE83" s="84"/>
+    </row>
+    <row r="84" spans="1:57">
+      <c r="Q84" s="84"/>
+      <c r="AI84" s="84"/>
+      <c r="BE84" s="84"/>
+    </row>
+    <row r="85" spans="1:57">
+      <c r="Q85" s="84"/>
+      <c r="AI85" s="84"/>
+      <c r="BE85" s="84"/>
+    </row>
+    <row r="86" spans="1:57">
+      <c r="Q86" s="84"/>
+      <c r="AI86" s="84"/>
+      <c r="BE86" s="84"/>
+    </row>
+    <row r="87" spans="1:57">
+      <c r="Q87" s="84"/>
+      <c r="AI87" s="84"/>
+      <c r="BE87" s="84"/>
+    </row>
+    <row r="88" spans="1:57">
+      <c r="Q88" s="84"/>
+      <c r="AI88" s="84"/>
+      <c r="BE88" s="84"/>
+    </row>
+    <row r="89" spans="1:57">
+      <c r="A89" s="84"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="84"/>
+      <c r="M89" s="84"/>
+      <c r="N89" s="84"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="84"/>
+      <c r="Q89" s="84"/>
+      <c r="R89" s="84"/>
+      <c r="S89" s="84"/>
+      <c r="T89" s="84"/>
+      <c r="U89" s="84"/>
+      <c r="V89" s="84"/>
+      <c r="W89" s="84"/>
+      <c r="X89" s="84"/>
+      <c r="Y89" s="84"/>
+      <c r="Z89" s="84"/>
+      <c r="AA89" s="84"/>
+      <c r="AB89" s="84"/>
+      <c r="AC89" s="84"/>
+      <c r="AD89" s="84"/>
+      <c r="AE89" s="84"/>
+      <c r="AF89" s="84"/>
+      <c r="AG89" s="84"/>
+      <c r="AH89" s="84"/>
+      <c r="AI89" s="84"/>
+      <c r="AJ89" s="84"/>
+      <c r="AK89" s="84"/>
+      <c r="AL89" s="84"/>
+      <c r="AM89" s="84"/>
+      <c r="AN89" s="84"/>
+      <c r="AO89" s="84"/>
+      <c r="AP89" s="84"/>
+      <c r="AQ89" s="84"/>
+      <c r="AR89" s="84"/>
+      <c r="AS89" s="84"/>
+      <c r="AT89" s="84"/>
+      <c r="AU89" s="84"/>
+      <c r="AV89" s="84"/>
+      <c r="AW89" s="84"/>
+      <c r="AX89" s="84"/>
+      <c r="AY89" s="84"/>
+      <c r="AZ89" s="84"/>
+      <c r="BA89" s="84"/>
+      <c r="BB89" s="84"/>
+      <c r="BC89" s="84"/>
+      <c r="BD89" s="84"/>
+      <c r="BE89" s="84"/>
+    </row>
+    <row r="90" spans="1:57">
+      <c r="A90" s="84"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="84"/>
+      <c r="I90" s="84"/>
+      <c r="J90" s="84"/>
+      <c r="K90" s="84"/>
+      <c r="L90" s="84"/>
+      <c r="M90" s="84"/>
+      <c r="N90" s="84"/>
+      <c r="O90" s="84"/>
+      <c r="P90" s="84"/>
+      <c r="Q90" s="84"/>
+      <c r="R90" s="84"/>
+      <c r="S90" s="84"/>
+      <c r="T90" s="84"/>
+      <c r="U90" s="84"/>
+      <c r="V90" s="84"/>
+      <c r="W90" s="84"/>
+      <c r="X90" s="84"/>
+      <c r="Y90" s="84"/>
+      <c r="Z90" s="84"/>
+      <c r="AA90" s="84"/>
+      <c r="AB90" s="84"/>
+      <c r="AC90" s="84"/>
+      <c r="AD90" s="84"/>
+      <c r="AE90" s="84"/>
+      <c r="AF90" s="84"/>
+      <c r="AG90" s="84"/>
+      <c r="AH90" s="84"/>
+      <c r="AI90" s="84"/>
+      <c r="AJ90" s="84"/>
+      <c r="AK90" s="84"/>
+      <c r="AL90" s="84"/>
+      <c r="AM90" s="84"/>
+      <c r="AN90" s="84"/>
+      <c r="AO90" s="84"/>
+      <c r="AP90" s="84"/>
+      <c r="AQ90" s="84"/>
+      <c r="AR90" s="84"/>
+      <c r="AS90" s="84"/>
+      <c r="AT90" s="84"/>
+      <c r="AU90" s="84"/>
+      <c r="AV90" s="84"/>
+      <c r="AW90" s="84"/>
+      <c r="AX90" s="84"/>
+      <c r="AY90" s="84"/>
+      <c r="AZ90" s="84"/>
+      <c r="BA90" s="84"/>
+      <c r="BB90" s="84"/>
+      <c r="BC90" s="84"/>
+      <c r="BD90" s="84"/>
+      <c r="BE90" s="84"/>
+    </row>
+    <row r="91" spans="1:57">
+      <c r="AB91" s="84"/>
+      <c r="BE91" s="84"/>
+    </row>
+    <row r="92" spans="1:57">
+      <c r="AB92" s="84"/>
+      <c r="BE92" s="84"/>
+    </row>
+    <row r="93" spans="1:57">
+      <c r="AB93" s="84"/>
+      <c r="BE93" s="84"/>
+    </row>
+    <row r="94" spans="1:57">
+      <c r="AB94" s="84"/>
+      <c r="BE94" s="84"/>
+    </row>
+    <row r="95" spans="1:57">
+      <c r="AB95" s="84"/>
+      <c r="BE95" s="84"/>
+    </row>
+    <row r="96" spans="1:57">
+      <c r="AB96" s="84"/>
+      <c r="BE96" s="84"/>
+    </row>
+    <row r="97" spans="28:57">
+      <c r="AB97" s="84"/>
+      <c r="BE97" s="84"/>
+    </row>
+    <row r="98" spans="28:57">
+      <c r="AB98" s="84"/>
+      <c r="BE98" s="84"/>
+    </row>
+    <row r="99" spans="28:57">
+      <c r="AB99" s="84"/>
+      <c r="BE99" s="84"/>
+    </row>
+    <row r="100" spans="28:57">
+      <c r="AB100" s="84"/>
+      <c r="BE100" s="84"/>
+    </row>
+    <row r="101" spans="28:57">
+      <c r="AB101" s="84"/>
+      <c r="BE101" s="84"/>
+    </row>
+    <row r="102" spans="28:57">
+      <c r="AB102" s="84"/>
+      <c r="BE102" s="84"/>
+    </row>
+    <row r="103" spans="28:57">
+      <c r="AB103" s="84"/>
+      <c r="BE103" s="84"/>
+    </row>
+    <row r="104" spans="28:57">
+      <c r="AB104" s="84"/>
+      <c r="BE104" s="84"/>
+    </row>
+    <row r="105" spans="28:57">
+      <c r="AB105" s="84"/>
+      <c r="BE105" s="84"/>
+    </row>
+    <row r="106" spans="28:57">
+      <c r="AB106" s="84"/>
+      <c r="BE106" s="84"/>
+    </row>
+    <row r="107" spans="28:57">
+      <c r="AB107" s="84"/>
+      <c r="BE107" s="84"/>
+    </row>
+    <row r="108" spans="28:57">
+      <c r="AB108" s="84"/>
+      <c r="BE108" s="84"/>
+    </row>
+    <row r="109" spans="28:57">
+      <c r="AB109" s="84"/>
+      <c r="BE109" s="84"/>
+    </row>
+    <row r="110" spans="28:57">
+      <c r="AB110" s="84"/>
+      <c r="BE110" s="84"/>
+    </row>
+    <row r="111" spans="28:57">
+      <c r="AB111" s="84"/>
+      <c r="BE111" s="84"/>
+    </row>
+    <row r="112" spans="28:57">
+      <c r="AB112" s="84"/>
+      <c r="BE112" s="84"/>
+    </row>
+    <row r="113" spans="28:57">
+      <c r="AB113" s="84"/>
+      <c r="BE113" s="84"/>
+    </row>
+    <row r="114" spans="28:57">
+      <c r="AB114" s="84"/>
+      <c r="BE114" s="84"/>
+    </row>
+    <row r="115" spans="28:57">
+      <c r="AB115" s="84"/>
+      <c r="BE115" s="84"/>
+    </row>
+    <row r="116" spans="28:57">
+      <c r="AB116" s="84"/>
+      <c r="BE116" s="84"/>
+    </row>
+    <row r="117" spans="28:57">
+      <c r="AB117" s="84"/>
+      <c r="BE117" s="84"/>
+    </row>
+    <row r="118" spans="28:57">
+      <c r="AB118" s="84"/>
+      <c r="BE118" s="84"/>
+    </row>
+    <row r="119" spans="28:57">
+      <c r="AB119" s="84"/>
+      <c r="BE119" s="84"/>
+    </row>
+    <row r="120" spans="28:57">
+      <c r="AB120" s="84"/>
+      <c r="BE120" s="84"/>
+    </row>
+    <row r="121" spans="28:57">
+      <c r="AB121" s="84"/>
+      <c r="BE121" s="84"/>
+    </row>
+    <row r="122" spans="28:57">
+      <c r="AB122" s="84"/>
+      <c r="BE122" s="84"/>
+    </row>
+    <row r="123" spans="28:57">
+      <c r="AB123" s="84"/>
+      <c r="BE123" s="84"/>
+    </row>
+    <row r="124" spans="28:57">
+      <c r="AB124" s="84"/>
+      <c r="BE124" s="84"/>
+    </row>
+    <row r="125" spans="28:57">
+      <c r="AB125" s="84"/>
+      <c r="BE125" s="84"/>
+    </row>
+    <row r="126" spans="28:57">
+      <c r="AB126" s="84"/>
+      <c r="BE126" s="84"/>
+    </row>
+    <row r="127" spans="28:57">
+      <c r="AB127" s="84"/>
+      <c r="BE127" s="84"/>
+    </row>
+    <row r="128" spans="28:57">
+      <c r="AB128" s="84"/>
+      <c r="BE128" s="84"/>
+    </row>
+    <row r="129" spans="28:57">
+      <c r="AB129" s="84"/>
+      <c r="BE129" s="84"/>
+    </row>
+    <row r="130" spans="28:57">
+      <c r="AB130" s="84"/>
+      <c r="BE130" s="84"/>
+    </row>
+    <row r="131" spans="28:57">
+      <c r="AB131" s="84"/>
+      <c r="BE131" s="84"/>
+    </row>
+    <row r="132" spans="28:57">
+      <c r="AB132" s="84"/>
+      <c r="BE132" s="84"/>
+    </row>
+    <row r="133" spans="28:57">
+      <c r="AB133" s="84"/>
+      <c r="BE133" s="84"/>
+    </row>
+    <row r="134" spans="28:57">
+      <c r="AB134" s="84"/>
+      <c r="BE134" s="84"/>
+    </row>
+    <row r="135" spans="28:57">
+      <c r="AB135" s="84"/>
+      <c r="BE135" s="84"/>
+    </row>
+    <row r="136" spans="28:57">
+      <c r="AB136" s="84"/>
+      <c r="BE136" s="84"/>
+    </row>
+    <row r="137" spans="28:57">
+      <c r="AB137" s="84"/>
+      <c r="BE137" s="84"/>
+    </row>
+    <row r="138" spans="28:57">
+      <c r="AB138" s="84"/>
+      <c r="BE138" s="84"/>
+    </row>
+    <row r="139" spans="28:57">
+      <c r="AB139" s="84"/>
+      <c r="BE139" s="84"/>
+    </row>
+    <row r="140" spans="28:57">
+      <c r="AB140" s="84"/>
+      <c r="BE140" s="84"/>
+    </row>
+    <row r="141" spans="28:57">
+      <c r="AB141" s="84"/>
+      <c r="BE141" s="84"/>
+    </row>
+    <row r="142" spans="28:57">
+      <c r="AB142" s="84"/>
+      <c r="BE142" s="84"/>
+    </row>
+    <row r="143" spans="28:57">
+      <c r="AB143" s="84"/>
+      <c r="BE143" s="84"/>
+    </row>
+    <row r="144" spans="28:57">
+      <c r="AB144" s="84"/>
+      <c r="BE144" s="84"/>
+    </row>
+    <row r="145" spans="28:57">
+      <c r="AB145" s="84"/>
+      <c r="BE145" s="84"/>
+    </row>
+    <row r="146" spans="28:57">
+      <c r="AB146" s="84"/>
+      <c r="BE146" s="84"/>
+    </row>
+    <row r="147" spans="28:57">
+      <c r="AB147" s="84"/>
+      <c r="BE147" s="84"/>
+    </row>
+    <row r="148" spans="28:57">
+      <c r="AB148" s="84"/>
+      <c r="BE148" s="84"/>
+    </row>
+    <row r="149" spans="28:57">
+      <c r="AB149" s="84"/>
+      <c r="BE149" s="84"/>
+    </row>
+    <row r="150" spans="28:57">
+      <c r="AB150" s="84"/>
+      <c r="BE150" s="84"/>
+    </row>
+    <row r="151" spans="28:57">
+      <c r="AB151" s="84"/>
+      <c r="BE151" s="84"/>
+    </row>
+    <row r="152" spans="28:57">
+      <c r="AB152" s="84"/>
+      <c r="BE152" s="84"/>
+    </row>
+    <row r="153" spans="28:57">
+      <c r="AB153" s="84"/>
+      <c r="BE153" s="84"/>
+    </row>
+    <row r="154" spans="28:57">
+      <c r="AB154" s="84"/>
+      <c r="BE154" s="84"/>
+    </row>
+    <row r="155" spans="28:57">
+      <c r="AB155" s="84"/>
+      <c r="BE155" s="84"/>
+    </row>
+    <row r="156" spans="28:57">
+      <c r="AB156" s="84"/>
+      <c r="BE156" s="84"/>
+    </row>
+    <row r="157" spans="28:57">
+      <c r="AB157" s="84"/>
+      <c r="BE157" s="84"/>
+    </row>
+    <row r="158" spans="28:57">
+      <c r="AB158" s="84"/>
+      <c r="BE158" s="84"/>
+    </row>
+    <row r="159" spans="28:57">
+      <c r="AB159" s="84"/>
+      <c r="BE159" s="84"/>
+    </row>
+    <row r="160" spans="28:57">
+      <c r="AB160" s="84"/>
+      <c r="BE160" s="84"/>
+    </row>
+    <row r="161" spans="28:57">
+      <c r="AB161" s="84"/>
+      <c r="BE161" s="84"/>
+    </row>
+    <row r="162" spans="28:57">
+      <c r="AB162" s="84"/>
+      <c r="BE162" s="84"/>
+    </row>
+    <row r="163" spans="28:57">
+      <c r="AB163" s="84"/>
+      <c r="BE163" s="84"/>
+    </row>
+    <row r="164" spans="28:57">
+      <c r="AB164" s="84"/>
+      <c r="BE164" s="84"/>
+    </row>
+    <row r="165" spans="28:57">
+      <c r="AB165" s="84"/>
+      <c r="BE165" s="84"/>
+    </row>
+    <row r="166" spans="28:57">
+      <c r="AB166" s="84"/>
+      <c r="BE166" s="84"/>
+    </row>
+    <row r="167" spans="28:57">
+      <c r="AB167" s="84"/>
+      <c r="BE167" s="84"/>
+    </row>
+    <row r="168" spans="28:57">
+      <c r="AB168" s="84"/>
+      <c r="BE168" s="84"/>
+    </row>
+    <row r="169" spans="28:57">
+      <c r="AB169" s="84"/>
+      <c r="BE169" s="84"/>
+    </row>
+    <row r="170" spans="28:57">
+      <c r="AB170" s="84"/>
+      <c r="BE170" s="84"/>
+    </row>
+    <row r="171" spans="28:57">
+      <c r="AB171" s="84"/>
+      <c r="BE171" s="84"/>
+    </row>
+    <row r="172" spans="28:57">
+      <c r="AB172" s="84"/>
+      <c r="BE172" s="84"/>
+    </row>
+    <row r="173" spans="28:57">
+      <c r="AB173" s="84"/>
+      <c r="BE173" s="84"/>
+    </row>
+    <row r="174" spans="28:57">
+      <c r="AB174" s="84"/>
+      <c r="BE174" s="84"/>
+    </row>
+    <row r="175" spans="28:57">
+      <c r="AB175" s="84"/>
+      <c r="BE175" s="84"/>
+    </row>
+    <row r="176" spans="28:57">
+      <c r="AB176" s="84"/>
+      <c r="BE176" s="84"/>
+    </row>
+    <row r="177" spans="1:57">
+      <c r="AB177" s="84"/>
+      <c r="BE177" s="84"/>
+    </row>
+    <row r="178" spans="1:57">
+      <c r="AB178" s="84"/>
+      <c r="BE178" s="84"/>
+    </row>
+    <row r="179" spans="1:57">
+      <c r="AB179" s="84"/>
+      <c r="BE179" s="84"/>
+    </row>
+    <row r="180" spans="1:57">
+      <c r="AB180" s="84"/>
+      <c r="BE180" s="84"/>
+    </row>
+    <row r="181" spans="1:57">
+      <c r="AB181" s="84"/>
+      <c r="BE181" s="84"/>
+    </row>
+    <row r="182" spans="1:57">
+      <c r="AB182" s="84"/>
+      <c r="BE182" s="84"/>
+    </row>
+    <row r="183" spans="1:57">
+      <c r="AB183" s="84"/>
+      <c r="BE183" s="84"/>
+    </row>
+    <row r="184" spans="1:57">
+      <c r="AB184" s="84"/>
+      <c r="BE184" s="84"/>
+    </row>
+    <row r="185" spans="1:57">
+      <c r="AB185" s="84"/>
+      <c r="BE185" s="84"/>
+    </row>
+    <row r="186" spans="1:57">
+      <c r="AB186" s="84"/>
+      <c r="BE186" s="84"/>
+    </row>
+    <row r="187" spans="1:57">
+      <c r="AB187" s="84"/>
+      <c r="BE187" s="84"/>
+    </row>
+    <row r="188" spans="1:57">
+      <c r="A188" s="84"/>
+      <c r="B188" s="84"/>
+      <c r="C188" s="84"/>
+      <c r="D188" s="84"/>
+      <c r="E188" s="84"/>
+      <c r="F188" s="84"/>
+      <c r="G188" s="84"/>
+      <c r="H188" s="84"/>
+      <c r="I188" s="84"/>
+      <c r="J188" s="84"/>
+      <c r="K188" s="84"/>
+      <c r="L188" s="84"/>
+      <c r="M188" s="84"/>
+      <c r="N188" s="84"/>
+      <c r="O188" s="84"/>
+      <c r="P188" s="84"/>
+      <c r="Q188" s="84"/>
+      <c r="R188" s="84"/>
+      <c r="S188" s="84"/>
+      <c r="T188" s="84"/>
+      <c r="U188" s="84"/>
+      <c r="V188" s="84"/>
+      <c r="W188" s="84"/>
+      <c r="X188" s="84"/>
+      <c r="Y188" s="84"/>
+      <c r="Z188" s="84"/>
+      <c r="AA188" s="84"/>
+      <c r="AB188" s="84"/>
+      <c r="AC188" s="84"/>
+      <c r="AD188" s="84"/>
+      <c r="AE188" s="84"/>
+      <c r="AF188" s="84"/>
+      <c r="AG188" s="84"/>
+      <c r="AH188" s="84"/>
+      <c r="AI188" s="84"/>
+      <c r="AJ188" s="84"/>
+      <c r="AK188" s="84"/>
+      <c r="AL188" s="84"/>
+      <c r="AM188" s="84"/>
+      <c r="AN188" s="84"/>
+      <c r="AO188" s="84"/>
+      <c r="AP188" s="84"/>
+      <c r="AQ188" s="84"/>
+      <c r="AR188" s="84"/>
+      <c r="AS188" s="84"/>
+      <c r="AT188" s="84"/>
+      <c r="AU188" s="84"/>
+      <c r="AV188" s="84"/>
+      <c r="AW188" s="84"/>
+      <c r="AX188" s="84"/>
+      <c r="AY188" s="84"/>
+      <c r="AZ188" s="84"/>
+      <c r="BA188" s="84"/>
+      <c r="BB188" s="84"/>
+      <c r="BC188" s="84"/>
+      <c r="BD188" s="84"/>
+      <c r="BE188" s="84"/>
+    </row>
+    <row r="189" spans="1:57">
+      <c r="A189" s="84"/>
+      <c r="B189" s="84"/>
+      <c r="C189" s="84"/>
+      <c r="D189" s="84"/>
+      <c r="E189" s="84"/>
+      <c r="F189" s="84"/>
+      <c r="G189" s="84"/>
+      <c r="H189" s="84"/>
+      <c r="I189" s="84"/>
+      <c r="J189" s="84"/>
+      <c r="K189" s="84"/>
+      <c r="L189" s="84"/>
+      <c r="M189" s="84"/>
+      <c r="N189" s="84"/>
+      <c r="O189" s="84"/>
+      <c r="P189" s="84"/>
+      <c r="Q189" s="84"/>
+      <c r="R189" s="84"/>
+      <c r="S189" s="84"/>
+      <c r="T189" s="84"/>
+      <c r="U189" s="84"/>
+      <c r="V189" s="84"/>
+      <c r="W189" s="84"/>
+      <c r="X189" s="84"/>
+      <c r="Y189" s="84"/>
+      <c r="Z189" s="84"/>
+      <c r="AA189" s="84"/>
+      <c r="AB189" s="84"/>
+      <c r="AC189" s="84"/>
+      <c r="AD189" s="84"/>
+      <c r="AE189" s="84"/>
+      <c r="AF189" s="84"/>
+      <c r="AG189" s="84"/>
+      <c r="AH189" s="84"/>
+      <c r="AI189" s="84"/>
+      <c r="AJ189" s="84"/>
+      <c r="AK189" s="84"/>
+      <c r="AL189" s="84"/>
+      <c r="AM189" s="84"/>
+      <c r="AN189" s="84"/>
+      <c r="AO189" s="84"/>
+      <c r="AP189" s="84"/>
+      <c r="AQ189" s="84"/>
+      <c r="AR189" s="84"/>
+      <c r="AS189" s="84"/>
+      <c r="AT189" s="84"/>
+      <c r="AU189" s="84"/>
+      <c r="AV189" s="84"/>
+      <c r="AW189" s="84"/>
+      <c r="AX189" s="84"/>
+      <c r="AY189" s="84"/>
+      <c r="AZ189" s="84"/>
+      <c r="BA189" s="84"/>
+      <c r="BB189" s="84"/>
+      <c r="BC189" s="84"/>
+      <c r="BD189" s="84"/>
+      <c r="BE189" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28542,15 +29792,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339A5BF-622A-45A2-9C36-FF7D2BEB1331}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="76"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1" ht="60">
-      <c r="A2" s="86" t="s">
-        <v>182</v>
+      <c r="A2" s="87" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
+++ b/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canbe\OneDrive\Masaüstü\RentFly_test\Proje Ek Dokümanları-Demo,Test Case Dokümanı vs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49A082-17A2-4152-B484-66B0275CD326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0506E9-6126-4FB2-ADE1-B7F01A47FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMSS-Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Sign Up-Analiz Dokümanı" sheetId="2" r:id="rId2"/>
     <sheet name="UML Diagramı" sheetId="3" r:id="rId3"/>
+    <sheet name="RentFly Demo Video" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FMSS-Test Cases'!$B$10:$H$14</definedName>
@@ -1520,6 +1521,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{6BF52A52-394A-11D3-B153-00C04F79FAA6}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="URL" ax:value="C:\Users\canbe\OneDrive\Masaüstü\RentFly_test\Proje Ek Dokümanları-Demo,Test Case Dokümanı vs\rentfly_video-demo.mp4"/>
+  <ax:ocxPr ax:name="rate" ax:value="1"/>
+  <ax:ocxPr ax:name="balance" ax:value="0"/>
+  <ax:ocxPr ax:name="currentPosition" ax:value="51,7907219"/>
+  <ax:ocxPr ax:name="defaultFrame" ax:value=""/>
+  <ax:ocxPr ax:name="playCount" ax:value="1"/>
+  <ax:ocxPr ax:name="autoStart" ax:value="-1"/>
+  <ax:ocxPr ax:name="currentMarker" ax:value="0"/>
+  <ax:ocxPr ax:name="invokeURLs" ax:value="-1"/>
+  <ax:ocxPr ax:name="baseURL" ax:value=""/>
+  <ax:ocxPr ax:name="volume" ax:value="0"/>
+  <ax:ocxPr ax:name="mute" ax:value="0"/>
+  <ax:ocxPr ax:name="uiMode" ax:value="full"/>
+  <ax:ocxPr ax:name="stretchToFit" ax:value="0"/>
+  <ax:ocxPr ax:name="windowlessVideo" ax:value="0"/>
+  <ax:ocxPr ax:name="enabled" ax:value="-1"/>
+  <ax:ocxPr ax:name="enableContextMenu" ax:value="-1"/>
+  <ax:ocxPr ax:name="fullScreen" ax:value="0"/>
+  <ax:ocxPr ax:name="SAMIStyle" ax:value=""/>
+  <ax:ocxPr ax:name="SAMILang" ax:value=""/>
+  <ax:ocxPr ax:name="SAMIFilename" ax:value=""/>
+  <ax:ocxPr ax:name="captioningID" ax:value=""/>
+  <ax:ocxPr ax:name="enableErrorDialogs" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="22352"/>
+  <ax:ocxPr ax:name="_cy" ax:value="13208"/>
+</ax:ocx>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1892,6 +1923,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>586740</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>586740</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="WindowsMediaPlayer1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2090,13 +2184,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sayfa3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -28697,6 +28791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645A4679-2680-4090-899A-65CEEAAC679A}">
+  <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:BE189"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -29790,9 +29885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339A5BF-622A-45A2-9C36-FF7D2BEB1331}">
+  <sheetPr codeName="Sayfa5"/>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
@@ -29811,4 +29907,51 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4E7EC-17BF-422F-9066-E086C974B7C3}">
+  <sheetPr codeName="Sayfa2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="76"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId3" name="WindowsMediaPlayer1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>586740</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>586740</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId3" name="WindowsMediaPlayer1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>
--- a/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
+++ b/Proje Ek Dokümanları-Demo,Test Case Dokümanı vs/test_cases-uml-analiz.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canbe\OneDrive\Masaüstü\RentFly_test\Proje Ek Dokümanları-Demo,Test Case Dokümanı vs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0506E9-6126-4FB2-ADE1-B7F01A47FCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538AB47-AFEC-425C-A915-72545CA136EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMSS-Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Sign Up-Analiz Dokümanı" sheetId="2" r:id="rId2"/>
     <sheet name="UML Diagramı" sheetId="3" r:id="rId3"/>
-    <sheet name="RentFly Demo Video" sheetId="5" r:id="rId4"/>
+    <sheet name="Database Test Senaryo Sonuçları" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FMSS-Test Cases'!$B$10:$H$14</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -659,12 +659,15 @@
   <si>
     <t>RentFly UML DIAGRAM</t>
   </si>
+  <si>
+    <t>Database Test Senaryo Sonuçları</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -801,6 +804,14 @@
     </font>
     <font>
       <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1226,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,6 +1514,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -1519,36 +1531,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{6BF52A52-394A-11D3-B153-00C04F79FAA6}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="URL" ax:value="C:\Users\canbe\OneDrive\Masaüstü\RentFly_test\Proje Ek Dokümanları-Demo,Test Case Dokümanı vs\rentfly_video-demo.mp4"/>
-  <ax:ocxPr ax:name="rate" ax:value="1"/>
-  <ax:ocxPr ax:name="balance" ax:value="0"/>
-  <ax:ocxPr ax:name="currentPosition" ax:value="51,7907219"/>
-  <ax:ocxPr ax:name="defaultFrame" ax:value=""/>
-  <ax:ocxPr ax:name="playCount" ax:value="1"/>
-  <ax:ocxPr ax:name="autoStart" ax:value="-1"/>
-  <ax:ocxPr ax:name="currentMarker" ax:value="0"/>
-  <ax:ocxPr ax:name="invokeURLs" ax:value="-1"/>
-  <ax:ocxPr ax:name="baseURL" ax:value=""/>
-  <ax:ocxPr ax:name="volume" ax:value="0"/>
-  <ax:ocxPr ax:name="mute" ax:value="0"/>
-  <ax:ocxPr ax:name="uiMode" ax:value="full"/>
-  <ax:ocxPr ax:name="stretchToFit" ax:value="0"/>
-  <ax:ocxPr ax:name="windowlessVideo" ax:value="0"/>
-  <ax:ocxPr ax:name="enabled" ax:value="-1"/>
-  <ax:ocxPr ax:name="enableContextMenu" ax:value="-1"/>
-  <ax:ocxPr ax:name="fullScreen" ax:value="0"/>
-  <ax:ocxPr ax:name="SAMIStyle" ax:value=""/>
-  <ax:ocxPr ax:name="SAMILang" ax:value=""/>
-  <ax:ocxPr ax:name="SAMIFilename" ax:value=""/>
-  <ax:ocxPr ax:name="captioningID" ax:value=""/>
-  <ax:ocxPr ax:name="enableErrorDialogs" ax:value="0"/>
-  <ax:ocxPr ax:name="_cx" ax:value="22352"/>
-  <ax:ocxPr ax:name="_cy" ax:value="13208"/>
-</ax:ocx>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1925,64 +1907,56 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>586740</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>24</xdr:col>
-          <xdr:colOff>586740</xdr:colOff>
-          <xdr:row>53</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="WindowsMediaPlayer1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161514</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Resim 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF997D02-6071-DB80-B811-BBD3DF79829D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="480060"/>
+          <a:ext cx="11103834" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2189,7 +2163,7 @@
   </sheetPr>
   <dimension ref="A1:X1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -29910,48 +29884,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A4E7EC-17BF-422F-9066-E086C974B7C3}">
-  <sheetPr codeName="Sayfa2"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E549F2F-9B29-4A22-8DB7-06D46A8EC3E8}">
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="76"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="20.399999999999999">
+      <c r="A2" s="96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId3" name="WindowsMediaPlayer1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>586740</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>586740</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4097" r:id="rId3" name="WindowsMediaPlayer1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>